--- a/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
@@ -532,32 +532,80 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -579,8 +627,16 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>

--- a/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1723,10 +1723,14 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Mariah</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1747,7 +1751,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1798,14 +1802,10 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2050,10 +2050,15 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2101,13 +2106,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2161,7 +2165,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2221,7 +2225,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2273,21 +2277,9 @@
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2381,7 +2373,11 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>6:15 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
@@ -2422,7 +2418,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>6:15 AM OFFICE MEET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2477,7 +2473,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2529,7 +2525,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>LYONS MOBIL PLAZA</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2545,13 +2541,13 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
           <t>Driver,
-Wht Camry</t>
+Red Van</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -2581,7 +2577,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>LYONS MOBIL PLAZA</t>
+          <t>1415 MILL ST</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2597,15 +2593,10 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe</t>
-        </is>
-      </c>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2633,7 +2624,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1415 MILL ST</t>
+          <t>https://goo.gl/maps/VZmKTDEtd5Kj21Ft8</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2649,10 +2640,14 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Mariah</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr"/>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2684,7 +2679,9 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/VZmKTDEtd5Kj21Ft8</t>
+          <t>INCLUDE CBD W/ TAXABLE; 
+COFFEE PRICES ARE AS FOLLOWS: COFFEE CASE $175, COFFEE BAG $29.67
+CAPPUCCINO CASE $32, CAPPUCCINO BAG $5.34</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2700,14 +2697,10 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2733,13 +2726,7 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>INCLUDE CBD W/ TAXABLE; 
-COFFEE PRICES ARE AS FOLLOWS: COFFEE CASE $175, COFFEE BAG $29.67
-CAPPUCCINO CASE $32, CAPPUCCINO BAG $5.34</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -2753,7 +2740,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2796,7 +2783,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2843,10 +2830,15 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2890,13 +2882,12 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -2923,9 +2914,21 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
@@ -2938,7 +2941,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -2965,24 +2968,25 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -2997,7 +3001,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3024,27 +3028,18 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Until noon</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -3057,12 +3052,13 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
@@ -3084,12 +3080,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Until noon</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -3108,13 +3104,12 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3136,7 +3131,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3146,7 +3141,11 @@
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -3160,7 +3159,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3187,22 +3186,27 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>*red camry</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3215,7 +3219,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3242,47 +3246,26 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>*red camry</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3302,12 +3285,13 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3325,46 +3309,6 @@
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
@@ -848,7 +848,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>PICK #878 +RX, MILWAUKEE-HOLT</t>
+          <t>PICK #878 +RX, MILWAUKEE - HOLT</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1499,7 +1499,8 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Rx
+until 11:30</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
@@ -2056,7 +2057,7 @@
       <c r="O28" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>

--- a/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
@@ -1581,7 +1581,11 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1652,7 +1656,11 @@
           <t>Mariah</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>work w/ Leyna</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2597,7 +2605,12 @@
           <t>Mariah</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>work w/ 
+Nate</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -3225,7 +3238,8 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>

--- a/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
@@ -2262,7 +2262,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>PICK #417 +RX, WEST BEND - WASHINGTON</t>
+          <t>PICK #417, WEST BEND - WASHINGTON (NO RX COUNT)</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2849,8 +2849,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -3071,8 +3070,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>

--- a/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
@@ -1188,11 +1188,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>**Kim - bring Red Camry to store to swap with Carlie</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
@@ -1266,9 +1262,21 @@
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1339,17 +1347,17 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Red Camry to store, Equip</t>
+          <t>w/ Trevor</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -1418,19 +1426,15 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>w/ Trevor</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1506,12 +1510,12 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1589,12 +1593,12 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1664,12 +1668,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1743,12 +1747,12 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1818,12 +1822,12 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1893,12 +1897,12 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1968,12 +1972,12 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -2023,15 +2027,19 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -2071,17 +2079,17 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2126,17 +2134,18 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2185,18 +2194,17 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -2245,12 +2253,12 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2292,17 +2300,18 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -2339,18 +2348,17 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -2389,21 +2397,9 @@
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>

--- a/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
@@ -1201,7 +1201,11 @@
           <t>Anamaria</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>work w/ Leyna</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1842,7 +1846,11 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>

--- a/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Milwaukee Schedule.xlsx
@@ -1117,11 +1117,7 @@
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Carlie and Trevor meet at 5:15 am in Grafton</t>
-        </is>
-      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
@@ -1187,9 +1183,21 @@
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
@@ -1268,17 +1276,17 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Red Van available, Equip</t>
+          <t>w/ Trevor</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1351,19 +1359,15 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>w/ Trevor</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1430,12 +1434,12 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -1514,12 +1518,12 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1597,12 +1601,12 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1672,12 +1676,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1751,12 +1755,12 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1826,12 +1830,12 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1905,12 +1909,12 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1980,15 +1984,19 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -2035,17 +2043,18 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>w/ Carlie</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -2087,12 +2096,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2142,18 +2151,17 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2202,17 +2210,18 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -2261,12 +2270,12 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2306,22 +2315,9 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
@@ -2354,21 +2350,9 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
